--- a/data/hotels_by_city/Dallas/Dallas_shard_763.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_763.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,452 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r571329571-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>56260</t>
+  </si>
+  <si>
+    <t>7786963</t>
+  </si>
+  <si>
+    <t>571329571</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Great service by staff Clean Hotel</t>
+  </si>
+  <si>
+    <t>My name is Zachariya, I had an excellent experience at this hotel. I was greeted with a beautiful smile with one of the warmest welcomes I've ever received.The front desk was amazing. I was greeted by Leonta. She was a great hostess , who went out of here way to accommodate my request. I will definitely be booking another stay at this hotel. Marriott has done an excellent job with selecting good people who genuinely care about their opportunity to please the guests, staying at the hotel.  You could tell Leonta was genuine and based on her service I will be returning . Thanks again to the entire staff in McKinney as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My name is Zachariya, I had an excellent experience at this hotel. I was greeted with a beautiful smile with one of the warmest welcomes I've ever received.The front desk was amazing. I was greeted by Leonta. She was a great hostess , who went out of here way to accommodate my request. I will definitely be booking another stay at this hotel. Marriott has done an excellent job with selecting good people who genuinely care about their opportunity to please the guests, staying at the hotel.  You could tell Leonta was genuine and based on her service I will be returning . Thanks again to the entire staff in McKinney as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r563799113-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>563799113</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and Friendly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff at Townhouse Suites was one of the friendliest I have seen in a while.Our room was clean and breakfast was great.The front entrance is unremarkable so  much that at first I thought it was the backside. Maybe a bigger awning? Sign? A good price for a nice stay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r558633199-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>558633199</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyond all expectations </t>
+  </si>
+  <si>
+    <t>This hotel has everything you could ever want. The bed is comfy and the sheets are nice. But that’s just the beginning. It is designed for long term stays but was great for a long weekend. In our king room there was a desk and sofa with ottoman; full kitchen (minus oven). There is TONS of storage. Looks like they have a deal with Elfa. They also offer a full breakfast— don’t expect Cracker Barrel—but hot, clean, and nourishing. They have a stock of games, wrapping paper, and just about anything you might need. The coup d’etat was this morning as we were leaving, the desk clerk was using a sticky roller on a guest’s coat! Now that above and beyond. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This hotel has everything you could ever want. The bed is comfy and the sheets are nice. But that’s just the beginning. It is designed for long term stays but was great for a long weekend. In our king room there was a desk and sofa with ottoman; full kitchen (minus oven). There is TONS of storage. Looks like they have a deal with Elfa. They also offer a full breakfast— don’t expect Cracker Barrel—but hot, clean, and nourishing. They have a stock of games, wrapping paper, and just about anything you might need. The coup d’etat was this morning as we were leaving, the desk clerk was using a sticky roller on a guest’s coat! Now that above and beyond. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r534867123-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>534867123</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Here staying right now...staying 3 nights..used marriott points and was upgraded to a suite...very nice and roomy...the lady at the front desk, Leonta was extremely nice and helpful..welcoming with a big smile...very pleasant...hotel is also very cleanMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Wendy B, General Manager at TownePlace Suites Dallas McKinney, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Here staying right now...staying 3 nights..used marriott points and was upgraded to a suite...very nice and roomy...the lady at the front desk, Leonta was extremely nice and helpful..welcoming with a big smile...very pleasant...hotel is also very cleanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r534322263-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>534322263</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Situation Rectified</t>
+  </si>
+  <si>
+    <t>Leonitia and Van came to the rescue! We had reservations for a Friday and Saturday for a wedding. The weekend before there was an emergency and we needed to cancel the Friday reservation, but hoped to get there for the Saturday night reservation.When we arrived on Saturday, hoping to get into our room just a bit early to put on our dress clothes for the wedding....we didn't have a room!!! someone had cancelled our entire reservation!!!!Leonitia and Van stepped up and handled the situation Professionally and Quickly...got us a room and even let us in just a bit early to be able to get dressed....We made the wedding on time and all was well The room was clean and just what we were looking for!Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>Leonitia and Van came to the rescue! We had reservations for a Friday and Saturday for a wedding. The weekend before there was an emergency and we needed to cancel the Friday reservation, but hoped to get there for the Saturday night reservation.When we arrived on Saturday, hoping to get into our room just a bit early to put on our dress clothes for the wedding....we didn't have a room!!! someone had cancelled our entire reservation!!!!Leonitia and Van stepped up and handled the situation Professionally and Quickly...got us a room and even let us in just a bit early to be able to get dressed....We made the wedding on time and all was well The room was clean and just what we were looking for!Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r533080719-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>533080719</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Do Yourself A Favor &amp; Stay Somewhere Else!</t>
+  </si>
+  <si>
+    <t>We only stayed one night, and it was too much!  We were in the McKinney area for a wedding.  We booked our room several months in advance--a king room.  When we arrived, we found ourselves in a room with two full beds, because they ran out of king rooms.  OK-not the end of the world, even though we'd booked so far in advance.  The room was decent enough, though one or two pieces of furniture, as well as the carpet, looked a little threadbare (which was surprising because the hotel looks relatively new).  We went up to the room and started unpacking.  The carpets looked like they had not been vacuumed in weeks. There was debris everywhere.  I called down to the front desk and asked if someone could come vacuum when we left for the wedding in an hour.  She clarified the time we would be out of our room, and we hung up.
+I went to put on the TV in the bedroom.  There was no remote.  I looked all over the bedroom area, but no remote.  There were three TVs in our room with one remote.  OK-also by itself, not a big deal.
+Next, went to get ready to shower.  There was a used bar of soap in the shower and several dark hairs in different places.  It looked like the shower had not been serviced. GROSS!  Had to clean the shower ourselves before we got in...We only stayed one night, and it was too much!  We were in the McKinney area for a wedding.  We booked our room several months in advance--a king room.  When we arrived, we found ourselves in a room with two full beds, because they ran out of king rooms.  OK-not the end of the world, even though we'd booked so far in advance.  The room was decent enough, though one or two pieces of furniture, as well as the carpet, looked a little threadbare (which was surprising because the hotel looks relatively new).  We went up to the room and started unpacking.  The carpets looked like they had not been vacuumed in weeks. There was debris everywhere.  I called down to the front desk and asked if someone could come vacuum when we left for the wedding in an hour.  She clarified the time we would be out of our room, and we hung up.I went to put on the TV in the bedroom.  There was no remote.  I looked all over the bedroom area, but no remote.  There were three TVs in our room with one remote.  OK-also by itself, not a big deal.Next, went to get ready to shower.  There was a used bar of soap in the shower and several dark hairs in different places.  It looked like the shower had not been serviced. GROSS!  Had to clean the shower ourselves before we got in it. (See photos)After returning from the wedding, we expected to come back and at least have the carpet clean, but no such luck.  Nothing had been done.  At that point, we were too tired to call down and wait for them to vacuum so we just got ready for bed. Then we realized that they left us with a partial roll of toilet paper and no spares.  As tired as we were, my husband went down to get some from the front desk.  Nobody was there though.  After waiting for a few minutes, he wound up going into the men's room in the lobby and taking a roll from there. I can deal with a lot from a hotel, as long as it's clean.  This was not even close!  Two additional photos show the threadbare carpeting and the burnt out lightbulb above the sink in the bathroom area. We could not wait to get out of there the next morning.  We paid our bill and left early and quickly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wendy B, General Manager at TownePlace Suites Dallas McKinney, responded to this reviewResponded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>We only stayed one night, and it was too much!  We were in the McKinney area for a wedding.  We booked our room several months in advance--a king room.  When we arrived, we found ourselves in a room with two full beds, because they ran out of king rooms.  OK-not the end of the world, even though we'd booked so far in advance.  The room was decent enough, though one or two pieces of furniture, as well as the carpet, looked a little threadbare (which was surprising because the hotel looks relatively new).  We went up to the room and started unpacking.  The carpets looked like they had not been vacuumed in weeks. There was debris everywhere.  I called down to the front desk and asked if someone could come vacuum when we left for the wedding in an hour.  She clarified the time we would be out of our room, and we hung up.
+I went to put on the TV in the bedroom.  There was no remote.  I looked all over the bedroom area, but no remote.  There were three TVs in our room with one remote.  OK-also by itself, not a big deal.
+Next, went to get ready to shower.  There was a used bar of soap in the shower and several dark hairs in different places.  It looked like the shower had not been serviced. GROSS!  Had to clean the shower ourselves before we got in...We only stayed one night, and it was too much!  We were in the McKinney area for a wedding.  We booked our room several months in advance--a king room.  When we arrived, we found ourselves in a room with two full beds, because they ran out of king rooms.  OK-not the end of the world, even though we'd booked so far in advance.  The room was decent enough, though one or two pieces of furniture, as well as the carpet, looked a little threadbare (which was surprising because the hotel looks relatively new).  We went up to the room and started unpacking.  The carpets looked like they had not been vacuumed in weeks. There was debris everywhere.  I called down to the front desk and asked if someone could come vacuum when we left for the wedding in an hour.  She clarified the time we would be out of our room, and we hung up.I went to put on the TV in the bedroom.  There was no remote.  I looked all over the bedroom area, but no remote.  There were three TVs in our room with one remote.  OK-also by itself, not a big deal.Next, went to get ready to shower.  There was a used bar of soap in the shower and several dark hairs in different places.  It looked like the shower had not been serviced. GROSS!  Had to clean the shower ourselves before we got in it. (See photos)After returning from the wedding, we expected to come back and at least have the carpet clean, but no such luck.  Nothing had been done.  At that point, we were too tired to call down and wait for them to vacuum so we just got ready for bed. Then we realized that they left us with a partial roll of toilet paper and no spares.  As tired as we were, my husband went down to get some from the front desk.  Nobody was there though.  After waiting for a few minutes, he wound up going into the men's room in the lobby and taking a roll from there. I can deal with a lot from a hotel, as long as it's clean.  This was not even close!  Two additional photos show the threadbare carpeting and the burnt out lightbulb above the sink in the bathroom area. We could not wait to get out of there the next morning.  We paid our bill and left early and quickly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r489434238-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>489434238</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>Wonderful hotel but... security is lacking!</t>
+  </si>
+  <si>
+    <t>Stayed there while in town for a wedding w/ hubby. Amazing hotel, rooms very clean and modern, breakfast good , outside well kept and in a great location- quiet. Now the bad- two of the front facing outside doors were propped open- one w/ a rock and other w/ a towel! After looked at the one by the pool, we realized the latch was broken and even though there was no outside handle- you could pry door open w/ fingers. This was at 11 pm so not secure at all when most people are sleeping! I told guy at front desk at breakfast- hope something is done!!!Perfect stay except for this!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Stayed there while in town for a wedding w/ hubby. Amazing hotel, rooms very clean and modern, breakfast good , outside well kept and in a great location- quiet. Now the bad- two of the front facing outside doors were propped open- one w/ a rock and other w/ a towel! After looked at the one by the pool, we realized the latch was broken and even though there was no outside handle- you could pry door open w/ fingers. This was at 11 pm so not secure at all when most people are sleeping! I told guy at front desk at breakfast- hope something is done!!!Perfect stay except for this!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r487510186-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>487510186</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>All you can expect from a base Marriott</t>
+  </si>
+  <si>
+    <t>Stayed here for my son's soccer tournament in McKinney. Fairly typical for this range of hotels - it is clean, good shower, and all basic amenities. Many restaurants witihin  a 15-20 mins drive in Mckinney or Allen. there is a small courtyard with a BBQ grill - it is right in the parking lot.. not a great place to hang out. If you need a good night sleep in Mckinney and dont want to spend too much - this is it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for my son's soccer tournament in McKinney. Fairly typical for this range of hotels - it is clean, good shower, and all basic amenities. Many restaurants witihin  a 15-20 mins drive in Mckinney or Allen. there is a small courtyard with a BBQ grill - it is right in the parking lot.. not a great place to hang out. If you need a good night sleep in Mckinney and dont want to spend too much - this is it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r482695198-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>482695198</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel but Poor Follow-up after Incident on Property</t>
+  </si>
+  <si>
+    <t>The TownPlace Suites in McKinney is a nice home away from home. I stayed at the hotel for 8 days while work was being done in my home in McKinney. While there, I slipped in the tub after just stepping into the tub and it was so slippery that I slipped, fell backwards out of the tub, hit my back onto the toilet and then fell onto the floor. The front desk clerk on duty was extremely helpful, calling the paramedics and providing a sheet to cover up my body. As I was in so much pain, I could not move. Subsequently, the General Manager, Wendy Boyd, asked me to send her an email with the account of the incident so that she can share with the Regional Manager. I sent the email on May 2, 2017, a subsequent email on May 3, 2017 asking her to acknowledge receipt of the email. As of today, May 8, 2017, I've not received acknowledgement of the incident email or been contacted by anyone from Marriott. I would not recommend anyone to stay at TownPlace Suites McKinney, because they do not address issues that occur on their property in an expeditious manner. I'm still in pain and being treated by my doctor.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2017</t>
+  </si>
+  <si>
+    <t>The TownPlace Suites in McKinney is a nice home away from home. I stayed at the hotel for 8 days while work was being done in my home in McKinney. While there, I slipped in the tub after just stepping into the tub and it was so slippery that I slipped, fell backwards out of the tub, hit my back onto the toilet and then fell onto the floor. The front desk clerk on duty was extremely helpful, calling the paramedics and providing a sheet to cover up my body. As I was in so much pain, I could not move. Subsequently, the General Manager, Wendy Boyd, asked me to send her an email with the account of the incident so that she can share with the Regional Manager. I sent the email on May 2, 2017, a subsequent email on May 3, 2017 asking her to acknowledge receipt of the email. As of today, May 8, 2017, I've not received acknowledgement of the incident email or been contacted by anyone from Marriott. I would not recommend anyone to stay at TownPlace Suites McKinney, because they do not address issues that occur on their property in an expeditious manner. I'm still in pain and being treated by my doctor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r478803758-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>478803758</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay Elsewhere </t>
+  </si>
+  <si>
+    <t>This property is newish but is not being maintained properly. Staff is inexperienced and not able to resolve issues during stays. General manager does not return calls and seems unconcerned. My advice is stay somewhere else. As a loyal Marriott Rewards member I'm concerned that Marriott is not properly inspecting these franchised hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2017</t>
+  </si>
+  <si>
+    <t>This property is newish but is not being maintained properly. Staff is inexperienced and not able to resolve issues during stays. General manager does not return calls and seems unconcerned. My advice is stay somewhere else. As a loyal Marriott Rewards member I'm concerned that Marriott is not properly inspecting these franchised hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r471765295-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>471765295</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Beware......be very aware</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this property a week ago for one night. One night was all that we could take because it became very hazardous to 2 of my children's health. When we checked in, we were upgraded due to being a Marriott Rewards platinum member to a 2 bedroom suite. The "AGM" said that there was very few rooms available due to the fact that there was a housekeeper shortage because they all walked out the week prior. He explained to us that there were animals in the room next door and prior but said that it was cleaned. Upon entering the room, we were literally knocked out by the smell. It was so bad that it burned our noses. Upon farther inspection of the room, we noticed that it wasn't cleaned very well. The shower curtain in the bathroom had not been changed as it had dirt smeared all over it, hair on the walls, mold stuck to the vent over the toilet, black marks on the walls. There was food left on the floors, counters, stove top with the oven door falling off and dirty dishes in the dishwasher. When my husband showed the pictures to the "AGM" he said that he knew that the room was in bad shape. He also said that the carpets had been shampooed but weren't done right. We used a whole can of Lysol to help with the smell,...My family and I stayed at this property a week ago for one night. One night was all that we could take because it became very hazardous to 2 of my children's health. When we checked in, we were upgraded due to being a Marriott Rewards platinum member to a 2 bedroom suite. The "AGM" said that there was very few rooms available due to the fact that there was a housekeeper shortage because they all walked out the week prior. He explained to us that there were animals in the room next door and prior but said that it was cleaned. Upon entering the room, we were literally knocked out by the smell. It was so bad that it burned our noses. Upon farther inspection of the room, we noticed that it wasn't cleaned very well. The shower curtain in the bathroom had not been changed as it had dirt smeared all over it, hair on the walls, mold stuck to the vent over the toilet, black marks on the walls. There was food left on the floors, counters, stove top with the oven door falling off and dirty dishes in the dishwasher. When my husband showed the pictures to the "AGM" he said that he knew that the room was in bad shape. He also said that the carpets had been shampooed but weren't done right. We used a whole can of Lysol to help with the smell, but unfortunately it did nothing. Later that night when we were going to bed, the sheets had not been changed!! When I went to the front desk to get sets of clean sheets, the night auditor was lounging on chairs with her feet propped up playing on her cell phone. She did not seem to care that I had to change my sheets that were previously used by another guest. The next day, we were rudely interrupted by housekeeping entering the room before check out time with a DND on the door. I was offered a late check out when I checked in the day before for 4pm. At 3:00 the room was called by the front desk asking if we were extending our stay. I said not on our lives would I extend. Too bad it almost came down to our lives because I had to bring 2 of my children to the nearest urgent care for their allergies because we were put into a room that the staff knew was not properly cleaned after it was used by an animal. When I checked out at the desk, I explained all this to the girl working. I told her to go smell the room, which she did and was disgusted. I also showed her the issues with the room. I told her that I would like to hear from the GM by Monday afternoon, which has not happened. So my warning to future guests: Enter at your own risk and good luck.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this property a week ago for one night. One night was all that we could take because it became very hazardous to 2 of my children's health. When we checked in, we were upgraded due to being a Marriott Rewards platinum member to a 2 bedroom suite. The "AGM" said that there was very few rooms available due to the fact that there was a housekeeper shortage because they all walked out the week prior. He explained to us that there were animals in the room next door and prior but said that it was cleaned. Upon entering the room, we were literally knocked out by the smell. It was so bad that it burned our noses. Upon farther inspection of the room, we noticed that it wasn't cleaned very well. The shower curtain in the bathroom had not been changed as it had dirt smeared all over it, hair on the walls, mold stuck to the vent over the toilet, black marks on the walls. There was food left on the floors, counters, stove top with the oven door falling off and dirty dishes in the dishwasher. When my husband showed the pictures to the "AGM" he said that he knew that the room was in bad shape. He also said that the carpets had been shampooed but weren't done right. We used a whole can of Lysol to help with the smell,...My family and I stayed at this property a week ago for one night. One night was all that we could take because it became very hazardous to 2 of my children's health. When we checked in, we were upgraded due to being a Marriott Rewards platinum member to a 2 bedroom suite. The "AGM" said that there was very few rooms available due to the fact that there was a housekeeper shortage because they all walked out the week prior. He explained to us that there were animals in the room next door and prior but said that it was cleaned. Upon entering the room, we were literally knocked out by the smell. It was so bad that it burned our noses. Upon farther inspection of the room, we noticed that it wasn't cleaned very well. The shower curtain in the bathroom had not been changed as it had dirt smeared all over it, hair on the walls, mold stuck to the vent over the toilet, black marks on the walls. There was food left on the floors, counters, stove top with the oven door falling off and dirty dishes in the dishwasher. When my husband showed the pictures to the "AGM" he said that he knew that the room was in bad shape. He also said that the carpets had been shampooed but weren't done right. We used a whole can of Lysol to help with the smell, but unfortunately it did nothing. Later that night when we were going to bed, the sheets had not been changed!! When I went to the front desk to get sets of clean sheets, the night auditor was lounging on chairs with her feet propped up playing on her cell phone. She did not seem to care that I had to change my sheets that were previously used by another guest. The next day, we were rudely interrupted by housekeeping entering the room before check out time with a DND on the door. I was offered a late check out when I checked in the day before for 4pm. At 3:00 the room was called by the front desk asking if we were extending our stay. I said not on our lives would I extend. Too bad it almost came down to our lives because I had to bring 2 of my children to the nearest urgent care for their allergies because we were put into a room that the staff knew was not properly cleaned after it was used by an animal. When I checked out at the desk, I explained all this to the girl working. I told her to go smell the room, which she did and was disgusted. I also showed her the issues with the room. I told her that I would like to hear from the GM by Monday afternoon, which has not happened. So my warning to future guests: Enter at your own risk and good luck.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r466152989-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>466152989</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Very nice lady at the desk. Hated the elevator, didn't like the decor and layout. Prefer the Springhills to the townePlace I guess. Fully adequate but would tend toward a different property next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Very nice lady at the desk. Hated the elevator, didn't like the decor and layout. Prefer the Springhills to the townePlace I guess. Fully adequate but would tend toward a different property next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r434049009-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>434049009</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Great hotel stay</t>
+  </si>
+  <si>
+    <t>My friend got a suite for her bridesmaids to share for her wedding. The suite had two good sized bedrooms, a pull out couch, one bathroom and a kitchenette. The room was very nice and the whole place was very clean. The staff was very friendly and accommodating. 5 people stayed the night and slept comfortably. The bride, 3 bridesmaids, and the mother of the bride all had their hair and make up done in the living area without feeling cramped. It was a great stay! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2016</t>
+  </si>
+  <si>
+    <t>My friend got a suite for her bridesmaids to share for her wedding. The suite had two good sized bedrooms, a pull out couch, one bathroom and a kitchenette. The room was very nice and the whole place was very clean. The staff was very friendly and accommodating. 5 people stayed the night and slept comfortably. The bride, 3 bridesmaids, and the mother of the bride all had their hair and make up done in the living area without feeling cramped. It was a great stay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r431336189-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>431336189</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Better bring toilet paper with you....</t>
+  </si>
+  <si>
+    <t>We stayed at this place for a few nights in Oct. 2016.  Upon entering the room around 6:30 pm, the dishwasher was still running.  That was just our first clue on how the room would be maintained:  Coffee was not replenished the next morning; the coffee pot was not cleaned; toilet paper and an obviously empty tissue box were not replenished.  I went down to the front desk to complain to a supervisor.  The front clerk said no one was there.  She then proceeded to a back room where she came back with 2 rolls of TP and a box of tissue, which I took back to my room in front of several customers who were waiting in line behind me.  So she didn't have the common sense (decency) to tell me that someone would deliver the items to my room.  Needless to say, we won't be staying there ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this place for a few nights in Oct. 2016.  Upon entering the room around 6:30 pm, the dishwasher was still running.  That was just our first clue on how the room would be maintained:  Coffee was not replenished the next morning; the coffee pot was not cleaned; toilet paper and an obviously empty tissue box were not replenished.  I went down to the front desk to complain to a supervisor.  The front clerk said no one was there.  She then proceeded to a back room where she came back with 2 rolls of TP and a box of tissue, which I took back to my room in front of several customers who were waiting in line behind me.  So she didn't have the common sense (decency) to tell me that someone would deliver the items to my room.  Needless to say, we won't be staying there ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r422490594-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>422490594</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Check in was delayed by 45 minutes due to room not being ready.</t>
+  </si>
+  <si>
+    <t>Booked into Towne Place Suites Marriott for a wedding.  Arrived at approximately 3:15 p.m. to check in.  Had to wait 45 minutes for the "room to be ready".  Had to rush to get ready for the wedding, and arrived late.  No apology from the staff, no offer to discount the stay.  Terrible experience.  Will never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Booked into Towne Place Suites Marriott for a wedding.  Arrived at approximately 3:15 p.m. to check in.  Had to wait 45 minutes for the "room to be ready".  Had to rush to get ready for the wedding, and arrived late.  No apology from the staff, no offer to discount the stay.  Terrible experience.  Will never stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r378736189-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>378736189</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Great Place, Especially for a Longer Stay!</t>
+  </si>
+  <si>
+    <t>I have been living on the road in this area for about 6 weeks, bouncing to various accommodations and, when I got here, I realized I should have come to this place sooner and stayed much longer!
+LOCATION: Ideal. Close to two major freeways, which means easy access to anywhere in the metroplex. Quiet neighborhood. Close to shopping of all types. You don't even have to cross a main road to get groceries, eat out or hit up the dollar store. 
+STAFF: All of them were kind, friendly, and awesome for my entire stay. 
+HOTEL AMENITIES: Nice pool outside; great morning breakfast that includes all of the basic continental stuff plus warm breakfast, like eggs sausage, cheese and everything you need for a do-it-yourself egg muffin. No pancakes or waffles, but I didn't care because I'd prefer eggs and sausage any day. 
+ROOM AMENITIES: Everything you need and then some. You get a full size refrigerator and freezer, dishwasher, and stove top, plus a full sized coffee maker, silverware, dishes, pots and pans, spatulas. This is what I wish every hotel room had and is a MUST for me when i travel for extended periods.  They also came in and refreshed my room every day, making the bed, refreshing towels, washing dishes, etc. Many longer term hotels don't do that. 
+DECOR/OVERALL: I also really loved the way the room itself was setup. It has a comfortable bed, nice thick pillows,...I have been living on the road in this area for about 6 weeks, bouncing to various accommodations and, when I got here, I realized I should have come to this place sooner and stayed much longer!LOCATION: Ideal. Close to two major freeways, which means easy access to anywhere in the metroplex. Quiet neighborhood. Close to shopping of all types. You don't even have to cross a main road to get groceries, eat out or hit up the dollar store. STAFF: All of them were kind, friendly, and awesome for my entire stay. HOTEL AMENITIES: Nice pool outside; great morning breakfast that includes all of the basic continental stuff plus warm breakfast, like eggs sausage, cheese and everything you need for a do-it-yourself egg muffin. No pancakes or waffles, but I didn't care because I'd prefer eggs and sausage any day. ROOM AMENITIES: Everything you need and then some. You get a full size refrigerator and freezer, dishwasher, and stove top, plus a full sized coffee maker, silverware, dishes, pots and pans, spatulas. This is what I wish every hotel room had and is a MUST for me when i travel for extended periods.  They also came in and refreshed my room every day, making the bed, refreshing towels, washing dishes, etc. Many longer term hotels don't do that. DECOR/OVERALL: I also really loved the way the room itself was setup. It has a comfortable bed, nice thick pillows, a loveseat-sized couch with a pull-up dinner tray as well as tray you can set on your bed to eat.  It had a full-sized desk and computer area as well, with PLENTY of storage. There's even an extra part of the desk that you can slide out and move all around like a regular table - it easily doubles as a dining room table. Overall, it's a newer facility, so everything is modern, clean, and tastefully decorated. The free WiFi also worked just awesome!Highly recommended and would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2016</t>
+  </si>
+  <si>
+    <t>I have been living on the road in this area for about 6 weeks, bouncing to various accommodations and, when I got here, I realized I should have come to this place sooner and stayed much longer!
+LOCATION: Ideal. Close to two major freeways, which means easy access to anywhere in the metroplex. Quiet neighborhood. Close to shopping of all types. You don't even have to cross a main road to get groceries, eat out or hit up the dollar store. 
+STAFF: All of them were kind, friendly, and awesome for my entire stay. 
+HOTEL AMENITIES: Nice pool outside; great morning breakfast that includes all of the basic continental stuff plus warm breakfast, like eggs sausage, cheese and everything you need for a do-it-yourself egg muffin. No pancakes or waffles, but I didn't care because I'd prefer eggs and sausage any day. 
+ROOM AMENITIES: Everything you need and then some. You get a full size refrigerator and freezer, dishwasher, and stove top, plus a full sized coffee maker, silverware, dishes, pots and pans, spatulas. This is what I wish every hotel room had and is a MUST for me when i travel for extended periods.  They also came in and refreshed my room every day, making the bed, refreshing towels, washing dishes, etc. Many longer term hotels don't do that. 
+DECOR/OVERALL: I also really loved the way the room itself was setup. It has a comfortable bed, nice thick pillows,...I have been living on the road in this area for about 6 weeks, bouncing to various accommodations and, when I got here, I realized I should have come to this place sooner and stayed much longer!LOCATION: Ideal. Close to two major freeways, which means easy access to anywhere in the metroplex. Quiet neighborhood. Close to shopping of all types. You don't even have to cross a main road to get groceries, eat out or hit up the dollar store. STAFF: All of them were kind, friendly, and awesome for my entire stay. HOTEL AMENITIES: Nice pool outside; great morning breakfast that includes all of the basic continental stuff plus warm breakfast, like eggs sausage, cheese and everything you need for a do-it-yourself egg muffin. No pancakes or waffles, but I didn't care because I'd prefer eggs and sausage any day. ROOM AMENITIES: Everything you need and then some. You get a full size refrigerator and freezer, dishwasher, and stove top, plus a full sized coffee maker, silverware, dishes, pots and pans, spatulas. This is what I wish every hotel room had and is a MUST for me when i travel for extended periods.  They also came in and refreshed my room every day, making the bed, refreshing towels, washing dishes, etc. Many longer term hotels don't do that. DECOR/OVERALL: I also really loved the way the room itself was setup. It has a comfortable bed, nice thick pillows, a loveseat-sized couch with a pull-up dinner tray as well as tray you can set on your bed to eat.  It had a full-sized desk and computer area as well, with PLENTY of storage. There's even an extra part of the desk that you can slide out and move all around like a regular table - it easily doubles as a dining room table. Overall, it's a newer facility, so everything is modern, clean, and tastefully decorated. The free WiFi also worked just awesome!Highly recommended and would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r378103017-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>378103017</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Relatively new location very quiet</t>
+  </si>
+  <si>
+    <t>Che kid in and was upgraded to a two bedroom suite. We were her for a week and found the location to be ideal to access highway 75 and downtown McKinney. Room was spacious and clean. Thank you for the great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Che kid in and was upgraded to a two bedroom suite. We were her for a week and found the location to be ideal to access highway 75 and downtown McKinney. Room was spacious and clean. Thank you for the great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r376407484-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>376407484</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>Good choice for business</t>
+  </si>
+  <si>
+    <t>Stayed for business for couple days and had a pleasant stay. This is a extended stayed type of hotel with very complete suites with all amenities needed for such stay. Breakfast offered has a good variety. There is a shopping area closed by with restaurants which was very convenient as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Stayed for business for couple days and had a pleasant stay. This is a extended stayed type of hotel with very complete suites with all amenities needed for such stay. Breakfast offered has a good variety. There is a shopping area closed by with restaurants which was very convenient as well.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1091,1128 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>73</v>
+      </c>
+      <c r="X6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>120</v>
+      </c>
+      <c r="X11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>134</v>
+      </c>
+      <c r="X13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>151</v>
+      </c>
+      <c r="X15" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>160</v>
+      </c>
+      <c r="X16" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" t="s">
+        <v>178</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>169</v>
+      </c>
+      <c r="X19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_763.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_763.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>zevans19</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>My name is Zachariya, I had an excellent experience at this hotel. I was greeted with a beautiful smile with one of the warmest welcomes I've ever received.The front desk was amazing. I was greeted by Leonta. She was a great hostess , who went out of here way to accommodate my request. I will definitely be booking another stay at this hotel. Marriott has done an excellent job with selecting good people who genuinely care about their opportunity to please the guests, staying at the hotel.  You could tell Leonta was genuine and based on her service I will be returning . Thanks again to the entire staff in McKinney as well.More</t>
   </si>
   <si>
+    <t>GoAndDo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r563799113-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Mommabearsmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r558633199-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>This hotel has everything you could ever want. The bed is comfy and the sheets are nice. But that’s just the beginning. It is designed for long term stays but was great for a long weekend. In our king room there was a desk and sofa with ottoman; full kitchen (minus oven). There is TONS of storage. Looks like they have a deal with Elfa. They also offer a full breakfast— don’t expect Cracker Barrel—but hot, clean, and nourishing. They have a stock of games, wrapping paper, and just about anything you might need. The coup d’etat was this morning as we were leaving, the desk clerk was using a sticky roller on a guest’s coat! Now that above and beyond. More</t>
   </si>
   <si>
+    <t>OKgal71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r534867123-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>Here staying right now...staying 3 nights..used marriott points and was upgraded to a suite...very nice and roomy...the lady at the front desk, Leonta was extremely nice and helpful..welcoming with a big smile...very pleasant...hotel is also very cleanMore</t>
   </si>
   <si>
+    <t>lrech62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r534322263-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -262,6 +277,9 @@
   </si>
   <si>
     <t>Leonitia and Van came to the rescue! We had reservations for a Friday and Saturday for a wedding. The weekend before there was an emergency and we needed to cancel the Friday reservation, but hoped to get there for the Saturday night reservation.When we arrived on Saturday, hoping to get into our room just a bit early to put on our dress clothes for the wedding....we didn't have a room!!! someone had cancelled our entire reservation!!!!Leonitia and Van stepped up and handled the situation Professionally and Quickly...got us a room and even let us in just a bit early to be able to get dressed....We made the wedding on time and all was well The room was clean and just what we were looking for!Thank youMore</t>
+  </si>
+  <si>
+    <t>putertutor22</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r533080719-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
@@ -292,6 +310,9 @@
 Next, went to get ready to shower.  There was a used bar of soap in the shower and several dark hairs in different places.  It looked like the shower had not been serviced. GROSS!  Had to clean the shower ourselves before we got in...We only stayed one night, and it was too much!  We were in the McKinney area for a wedding.  We booked our room several months in advance--a king room.  When we arrived, we found ourselves in a room with two full beds, because they ran out of king rooms.  OK-not the end of the world, even though we'd booked so far in advance.  The room was decent enough, though one or two pieces of furniture, as well as the carpet, looked a little threadbare (which was surprising because the hotel looks relatively new).  We went up to the room and started unpacking.  The carpets looked like they had not been vacuumed in weeks. There was debris everywhere.  I called down to the front desk and asked if someone could come vacuum when we left for the wedding in an hour.  She clarified the time we would be out of our room, and we hung up.I went to put on the TV in the bedroom.  There was no remote.  I looked all over the bedroom area, but no remote.  There were three TVs in our room with one remote.  OK-also by itself, not a big deal.Next, went to get ready to shower.  There was a used bar of soap in the shower and several dark hairs in different places.  It looked like the shower had not been serviced. GROSS!  Had to clean the shower ourselves before we got in it. (See photos)After returning from the wedding, we expected to come back and at least have the carpet clean, but no such luck.  Nothing had been done.  At that point, we were too tired to call down and wait for them to vacuum so we just got ready for bed. Then we realized that they left us with a partial roll of toilet paper and no spares.  As tired as we were, my husband went down to get some from the front desk.  Nobody was there though.  After waiting for a few minutes, he wound up going into the men's room in the lobby and taking a roll from there. I can deal with a lot from a hotel, as long as it's clean.  This was not even close!  Two additional photos show the threadbare carpeting and the burnt out lightbulb above the sink in the bathroom area. We could not wait to get out of there the next morning.  We paid our bill and left early and quickly.More</t>
   </si>
   <si>
+    <t>lovetoeatout25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r489434238-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -313,6 +334,9 @@
     <t>Stayed there while in town for a wedding w/ hubby. Amazing hotel, rooms very clean and modern, breakfast good , outside well kept and in a great location- quiet. Now the bad- two of the front facing outside doors were propped open- one w/ a rock and other w/ a towel! After looked at the one by the pool, we realized the latch was broken and even though there was no outside handle- you could pry door open w/ fingers. This was at 11 pm so not secure at all when most people are sleeping! I told guy at front desk at breakfast- hope something is done!!!Perfect stay except for this!More</t>
   </si>
   <si>
+    <t>rover_733</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r487510186-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -337,6 +361,9 @@
     <t>Stayed here for my son's soccer tournament in McKinney. Fairly typical for this range of hotels - it is clean, good shower, and all basic amenities. Many restaurants witihin  a 15-20 mins drive in Mckinney or Allen. there is a small courtyard with a BBQ grill - it is right in the parking lot.. not a great place to hang out. If you need a good night sleep in Mckinney and dont want to spend too much - this is it.More</t>
   </si>
   <si>
+    <t>Jennifer S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r482695198-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -364,6 +391,9 @@
     <t>The TownPlace Suites in McKinney is a nice home away from home. I stayed at the hotel for 8 days while work was being done in my home in McKinney. While there, I slipped in the tub after just stepping into the tub and it was so slippery that I slipped, fell backwards out of the tub, hit my back onto the toilet and then fell onto the floor. The front desk clerk on duty was extremely helpful, calling the paramedics and providing a sheet to cover up my body. As I was in so much pain, I could not move. Subsequently, the General Manager, Wendy Boyd, asked me to send her an email with the account of the incident so that she can share with the Regional Manager. I sent the email on May 2, 2017, a subsequent email on May 3, 2017 asking her to acknowledge receipt of the email. As of today, May 8, 2017, I've not received acknowledgement of the incident email or been contacted by anyone from Marriott. I would not recommend anyone to stay at TownPlace Suites McKinney, because they do not address issues that occur on their property in an expeditious manner. I'm still in pain and being treated by my doctor.More</t>
   </si>
   <si>
+    <t>AJM1975</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r478803758-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -391,6 +421,9 @@
     <t>This property is newish but is not being maintained properly. Staff is inexperienced and not able to resolve issues during stays. General manager does not return calls and seems unconcerned. My advice is stay somewhere else. As a loyal Marriott Rewards member I'm concerned that Marriott is not properly inspecting these franchised hotels.More</t>
   </si>
   <si>
+    <t>Lulu4u82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r471765295-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -409,6 +442,9 @@
     <t>My family and I stayed at this property a week ago for one night. One night was all that we could take because it became very hazardous to 2 of my children's health. When we checked in, we were upgraded due to being a Marriott Rewards platinum member to a 2 bedroom suite. The "AGM" said that there was very few rooms available due to the fact that there was a housekeeper shortage because they all walked out the week prior. He explained to us that there were animals in the room next door and prior but said that it was cleaned. Upon entering the room, we were literally knocked out by the smell. It was so bad that it burned our noses. Upon farther inspection of the room, we noticed that it wasn't cleaned very well. The shower curtain in the bathroom had not been changed as it had dirt smeared all over it, hair on the walls, mold stuck to the vent over the toilet, black marks on the walls. There was food left on the floors, counters, stove top with the oven door falling off and dirty dishes in the dishwasher. When my husband showed the pictures to the "AGM" he said that he knew that the room was in bad shape. He also said that the carpets had been shampooed but weren't done right. We used a whole can of Lysol to help with the smell,...My family and I stayed at this property a week ago for one night. One night was all that we could take because it became very hazardous to 2 of my children's health. When we checked in, we were upgraded due to being a Marriott Rewards platinum member to a 2 bedroom suite. The "AGM" said that there was very few rooms available due to the fact that there was a housekeeper shortage because they all walked out the week prior. He explained to us that there were animals in the room next door and prior but said that it was cleaned. Upon entering the room, we were literally knocked out by the smell. It was so bad that it burned our noses. Upon farther inspection of the room, we noticed that it wasn't cleaned very well. The shower curtain in the bathroom had not been changed as it had dirt smeared all over it, hair on the walls, mold stuck to the vent over the toilet, black marks on the walls. There was food left on the floors, counters, stove top with the oven door falling off and dirty dishes in the dishwasher. When my husband showed the pictures to the "AGM" he said that he knew that the room was in bad shape. He also said that the carpets had been shampooed but weren't done right. We used a whole can of Lysol to help with the smell, but unfortunately it did nothing. Later that night when we were going to bed, the sheets had not been changed!! When I went to the front desk to get sets of clean sheets, the night auditor was lounging on chairs with her feet propped up playing on her cell phone. She did not seem to care that I had to change my sheets that were previously used by another guest. The next day, we were rudely interrupted by housekeeping entering the room before check out time with a DND on the door. I was offered a late check out when I checked in the day before for 4pm. At 3:00 the room was called by the front desk asking if we were extending our stay. I said not on our lives would I extend. Too bad it almost came down to our lives because I had to bring 2 of my children to the nearest urgent care for their allergies because we were put into a room that the staff knew was not properly cleaned after it was used by an animal. When I checked out at the desk, I explained all this to the girl working. I told her to go smell the room, which she did and was disgusted. I also showed her the issues with the room. I told her that I would like to hear from the GM by Monday afternoon, which has not happened. So my warning to future guests: Enter at your own risk and good luck.More</t>
   </si>
   <si>
+    <t>7132Dave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r466152989-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -433,6 +469,9 @@
     <t>Very nice lady at the desk. Hated the elevator, didn't like the decor and layout. Prefer the Springhills to the townePlace I guess. Fully adequate but would tend toward a different property next time.More</t>
   </si>
   <si>
+    <t>Lauren M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r434049009-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -460,6 +499,9 @@
     <t>My friend got a suite for her bridesmaids to share for her wedding. The suite had two good sized bedrooms, a pull out couch, one bathroom and a kitchenette. The room was very nice and the whole place was very clean. The staff was very friendly and accommodating. 5 people stayed the night and slept comfortably. The bride, 3 bridesmaids, and the mother of the bride all had their hair and make up done in the living area without feeling cramped. It was a great stay! More</t>
   </si>
   <si>
+    <t>erbii</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r431336189-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -484,6 +526,9 @@
     <t>We stayed at this place for a few nights in Oct. 2016.  Upon entering the room around 6:30 pm, the dishwasher was still running.  That was just our first clue on how the room would be maintained:  Coffee was not replenished the next morning; the coffee pot was not cleaned; toilet paper and an obviously empty tissue box were not replenished.  I went down to the front desk to complain to a supervisor.  The front clerk said no one was there.  She then proceeded to a back room where she came back with 2 rolls of TP and a box of tissue, which I took back to my room in front of several customers who were waiting in line behind me.  So she didn't have the common sense (decency) to tell me that someone would deliver the items to my room.  Needless to say, we won't be staying there ever again.More</t>
   </si>
   <si>
+    <t>Evelyn L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r422490594-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -509,6 +554,9 @@
   </si>
   <si>
     <t>Booked into Towne Place Suites Marriott for a wedding.  Arrived at approximately 3:15 p.m. to check in.  Had to wait 45 minutes for the "room to be ready".  Had to rush to get ready for the wedding, and arrived late.  No apology from the staff, no offer to discount the stay.  Terrible experience.  Will never stay there again.More</t>
+  </si>
+  <si>
+    <t>Jeanette G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r378736189-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
@@ -548,6 +596,9 @@
 DECOR/OVERALL: I also really loved the way the room itself was setup. It has a comfortable bed, nice thick pillows,...I have been living on the road in this area for about 6 weeks, bouncing to various accommodations and, when I got here, I realized I should have come to this place sooner and stayed much longer!LOCATION: Ideal. Close to two major freeways, which means easy access to anywhere in the metroplex. Quiet neighborhood. Close to shopping of all types. You don't even have to cross a main road to get groceries, eat out or hit up the dollar store. STAFF: All of them were kind, friendly, and awesome for my entire stay. HOTEL AMENITIES: Nice pool outside; great morning breakfast that includes all of the basic continental stuff plus warm breakfast, like eggs sausage, cheese and everything you need for a do-it-yourself egg muffin. No pancakes or waffles, but I didn't care because I'd prefer eggs and sausage any day. ROOM AMENITIES: Everything you need and then some. You get a full size refrigerator and freezer, dishwasher, and stove top, plus a full sized coffee maker, silverware, dishes, pots and pans, spatulas. This is what I wish every hotel room had and is a MUST for me when i travel for extended periods.  They also came in and refreshed my room every day, making the bed, refreshing towels, washing dishes, etc. Many longer term hotels don't do that. DECOR/OVERALL: I also really loved the way the room itself was setup. It has a comfortable bed, nice thick pillows, a loveseat-sized couch with a pull-up dinner tray as well as tray you can set on your bed to eat.  It had a full-sized desk and computer area as well, with PLENTY of storage. There's even an extra part of the desk that you can slide out and move all around like a regular table - it easily doubles as a dining room table. Overall, it's a newer facility, so everything is modern, clean, and tastefully decorated. The free WiFi also worked just awesome!Highly recommended and would definitely stay here again.More</t>
   </si>
   <si>
+    <t>GISGoddess</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r378103017-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -570,6 +621,9 @@
   </si>
   <si>
     <t>Che kid in and was upgraded to a two bedroom suite. We were her for a week and found the location to be ideal to access highway 75 and downtown McKinney. Room was spacious and clean. Thank you for the great stay.More</t>
+  </si>
+  <si>
+    <t>MarissaMN</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r376407484-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
@@ -1095,43 +1149,47 @@
       <c r="A2" t="n">
         <v>63134</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>180223</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1149,50 +1207,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>63134</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>180224</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1206,50 +1268,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>63134</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>180225</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1263,50 +1329,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>63134</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>180226</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1318,56 +1388,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>63134</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>180227</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1383,56 +1457,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>63134</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>180228</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1450,56 +1528,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>63134</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>180229</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1513,50 +1595,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>63134</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>92233</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1574,56 +1660,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>63134</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>450</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1641,56 +1731,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="X10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>63134</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>47418</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1702,47 +1796,51 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>63134</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>180230</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
@@ -1761,41 +1859,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>63134</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>180231</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
@@ -1812,56 +1914,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="X13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>63134</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>4404</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1873,56 +1979,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>63134</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>180232</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -1938,56 +2048,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>63134</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>71081</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2003,56 +2117,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="X16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>63134</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2070,56 +2188,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="X17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>63134</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>126739</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="O18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2137,56 +2259,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="X18" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="Y18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>63134</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>180233</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="O19" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2204,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="X19" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_763.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_763.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="285">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,111 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>zevans19</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r609394448-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>56260</t>
+  </si>
+  <si>
+    <t>7786963</t>
+  </si>
+  <si>
+    <t>609394448</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>Great staff.  Not so good if you have allergies. Pets allowed in every room. Beware.</t>
+  </si>
+  <si>
+    <t>If you have pets this is the place to be. Pets are allowed on the entire property. This was not disclosed on the hotel website. We have allergies and had to leave the property. The staff was very understanding.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Emily M, Front Office Manager at TownePlace Suites Dallas McKinney, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>If you have pets this is the place to be. Pets are allowed on the entire property. This was not disclosed on the hotel website. We have allergies and had to leave the property. The staff was very understanding.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r605562461-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>605562461</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>TownePlace McKinney</t>
+  </si>
+  <si>
+    <t>Visited McKinney for my son’s tournament. TownePlace was clean and looked fairly new. Rooms were spacious and comfortable. Staff was very friendly. Breakfast was spartan but good. It was close to highway, shopping and plenty of restaurants. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Visited McKinney for my son’s tournament. TownePlace was clean and looked fairly new. Rooms were spacious and comfortable. Staff was very friendly. Breakfast was spartan but good. It was close to highway, shopping and plenty of restaurants. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r585439509-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>585439509</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>First Impressions Not Good!!!</t>
+  </si>
+  <si>
+    <t>I thought about just turning around and leaving but it was late and I was tired.  I was welcomed to the hotel by a group of what appeared to be construction workers sitting at the pool located at the entrance chugging away at beer; not sure if they were guest, hopefully so. There were several cases on the ground along with spent beer cans; I don’t find it very nice or professional to have this garbage at the entrance! The front office staff and management should play an important part in keeping order and asking the group to keep it clean; there are several trash cans in position to throw away the beer cans and cardboard cases; this would keep the property presentable.The room was dirty, poorly vac’d, and I saw a small bug on the desk.  Sadly, this property will soon join the list of Townplace Suites that I will stay away from!Yours Truly,Platinum Elite Member 1000+ nights and countingMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I thought about just turning around and leaving but it was late and I was tired.  I was welcomed to the hotel by a group of what appeared to be construction workers sitting at the pool located at the entrance chugging away at beer; not sure if they were guest, hopefully so. There were several cases on the ground along with spent beer cans; I don’t find it very nice or professional to have this garbage at the entrance! The front office staff and management should play an important part in keeping order and asking the group to keep it clean; there are several trash cans in position to throw away the beer cans and cardboard cases; this would keep the property presentable.The room was dirty, poorly vac’d, and I saw a small bug on the desk.  Sadly, this property will soon join the list of Townplace Suites that I will stay away from!Yours Truly,Platinum Elite Member 1000+ nights and countingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r579266004-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>579266004</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>The room was a great size, perfect for traveling with a little one. The kitchen was exactly what we needed and the bed was so comfortable. The room was clean, the staff was friendly and the breakfast was great. I would stay here again.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r571329571-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
-    <t>56260</t>
-  </si>
-  <si>
-    <t>7786963</t>
-  </si>
-  <si>
     <t>571329571</t>
   </si>
   <si>
@@ -177,15 +267,9 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>My name is Zachariya, I had an excellent experience at this hotel. I was greeted with a beautiful smile with one of the warmest welcomes I've ever received.The front desk was amazing. I was greeted by Leonta. She was a great hostess , who went out of here way to accommodate my request. I will definitely be booking another stay at this hotel. Marriott has done an excellent job with selecting good people who genuinely care about their opportunity to please the guests, staying at the hotel.  You could tell Leonta was genuine and based on her service I will be returning . Thanks again to the entire staff in McKinney as well.More</t>
   </si>
   <si>
-    <t>GoAndDo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r563799113-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -204,9 +288,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Mommabearsmith</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r558633199-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -222,13 +303,55 @@
     <t>This hotel has everything you could ever want. The bed is comfy and the sheets are nice. But that’s just the beginning. It is designed for long term stays but was great for a long weekend. In our king room there was a desk and sofa with ottoman; full kitchen (minus oven). There is TONS of storage. Looks like they have a deal with Elfa. They also offer a full breakfast— don’t expect Cracker Barrel—but hot, clean, and nourishing. They have a stock of games, wrapping paper, and just about anything you might need. The coup d’etat was this morning as we were leaving, the desk clerk was using a sticky roller on a guest’s coat! Now that above and beyond. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>This hotel has everything you could ever want. The bed is comfy and the sheets are nice. But that’s just the beginning. It is designed for long term stays but was great for a long weekend. In our king room there was a desk and sofa with ottoman; full kitchen (minus oven). There is TONS of storage. Looks like they have a deal with Elfa. They also offer a full breakfast— don’t expect Cracker Barrel—but hot, clean, and nourishing. They have a stock of games, wrapping paper, and just about anything you might need. The coup d’etat was this morning as we were leaving, the desk clerk was using a sticky roller on a guest’s coat! Now that above and beyond. More</t>
   </si>
   <si>
-    <t>OKgal71</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r552028453-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>552028453</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christmas holiday </t>
+  </si>
+  <si>
+    <t>I had booked my family a stay at this property for Christmas and it was great. At first I looked on Tripadvisor and the pictures were misleading so I suggest to look on Yelp or their website for more accurate pictures because on here it make it seem like it was a older property so I was skeptical at first to booked this property. But once I had arrived, I was pleased with the results. The lobby is small yet, modern. The standard rooms are large and could fit a family of 4 inside of it. The closet is huge and connects to the other side of the bathroom. They have updated fridges, dishwasher, microwave, and a two eye stovetop. The staff was friendly and very watchful of who arrives at the property which makes me feel safe. They are located next to a nice retirement home and a apartment complex across the street. The expressway is only a few feet from it but you can't hear the noise. Overall I would stay at this property again! MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>I had booked my family a stay at this property for Christmas and it was great. At first I looked on Tripadvisor and the pictures were misleading so I suggest to look on Yelp or their website for more accurate pictures because on here it make it seem like it was a older property so I was skeptical at first to booked this property. But once I had arrived, I was pleased with the results. The lobby is small yet, modern. The standard rooms are large and could fit a family of 4 inside of it. The closet is huge and connects to the other side of the bathroom. They have updated fridges, dishwasher, microwave, and a two eye stovetop. The staff was friendly and very watchful of who arrives at the property which makes me feel safe. They are located next to a nice retirement home and a apartment complex across the street. The expressway is only a few feet from it but you can't hear the noise. Overall I would stay at this property again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r536050239-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>536050239</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Game day visit</t>
+  </si>
+  <si>
+    <t>Staff was great!!! Leonta made checking in and out pleasant and location was nice. Only thing need to improve on is breakfast on weekend offering eggs with bacon,sausage or even ham would be great thanks      MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Wendy B, General Manager at TownePlace Suites Dallas McKinney, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Staff was great!!! Leonta made checking in and out pleasant and location was nice. Only thing need to improve on is breakfast on weekend offering eggs with bacon,sausage or even ham would be great thanks      More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r534867123-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
@@ -246,21 +369,9 @@
     <t>Here staying right now...staying 3 nights..used marriott points and was upgraded to a suite...very nice and roomy...the lady at the front desk, Leonta was extremely nice and helpful..welcoming with a big smile...very pleasant...hotel is also very cleanMoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t>Wendy B, General Manager at TownePlace Suites Dallas McKinney, responded to this reviewResponded October 30, 2017</t>
-  </si>
-  <si>
-    <t>Responded October 30, 2017</t>
-  </si>
-  <si>
     <t>Here staying right now...staying 3 nights..used marriott points and was upgraded to a suite...very nice and roomy...the lady at the front desk, Leonta was extremely nice and helpful..welcoming with a big smile...very pleasant...hotel is also very cleanMore</t>
   </si>
   <si>
-    <t>lrech62</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r534322263-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -277,9 +388,6 @@
   </si>
   <si>
     <t>Leonitia and Van came to the rescue! We had reservations for a Friday and Saturday for a wedding. The weekend before there was an emergency and we needed to cancel the Friday reservation, but hoped to get there for the Saturday night reservation.When we arrived on Saturday, hoping to get into our room just a bit early to put on our dress clothes for the wedding....we didn't have a room!!! someone had cancelled our entire reservation!!!!Leonitia and Van stepped up and handled the situation Professionally and Quickly...got us a room and even let us in just a bit early to be able to get dressed....We made the wedding on time and all was well The room was clean and just what we were looking for!Thank youMore</t>
-  </si>
-  <si>
-    <t>putertutor22</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r533080719-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
@@ -310,7 +418,55 @@
 Next, went to get ready to shower.  There was a used bar of soap in the shower and several dark hairs in different places.  It looked like the shower had not been serviced. GROSS!  Had to clean the shower ourselves before we got in...We only stayed one night, and it was too much!  We were in the McKinney area for a wedding.  We booked our room several months in advance--a king room.  When we arrived, we found ourselves in a room with two full beds, because they ran out of king rooms.  OK-not the end of the world, even though we'd booked so far in advance.  The room was decent enough, though one or two pieces of furniture, as well as the carpet, looked a little threadbare (which was surprising because the hotel looks relatively new).  We went up to the room and started unpacking.  The carpets looked like they had not been vacuumed in weeks. There was debris everywhere.  I called down to the front desk and asked if someone could come vacuum when we left for the wedding in an hour.  She clarified the time we would be out of our room, and we hung up.I went to put on the TV in the bedroom.  There was no remote.  I looked all over the bedroom area, but no remote.  There were three TVs in our room with one remote.  OK-also by itself, not a big deal.Next, went to get ready to shower.  There was a used bar of soap in the shower and several dark hairs in different places.  It looked like the shower had not been serviced. GROSS!  Had to clean the shower ourselves before we got in it. (See photos)After returning from the wedding, we expected to come back and at least have the carpet clean, but no such luck.  Nothing had been done.  At that point, we were too tired to call down and wait for them to vacuum so we just got ready for bed. Then we realized that they left us with a partial roll of toilet paper and no spares.  As tired as we were, my husband went down to get some from the front desk.  Nobody was there though.  After waiting for a few minutes, he wound up going into the men's room in the lobby and taking a roll from there. I can deal with a lot from a hotel, as long as it's clean.  This was not even close!  Two additional photos show the threadbare carpeting and the burnt out lightbulb above the sink in the bathroom area. We could not wait to get out of there the next morning.  We paid our bill and left early and quickly.More</t>
   </si>
   <si>
-    <t>lovetoeatout25</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r531768280-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>531768280</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Summarize Visit</t>
+  </si>
+  <si>
+    <t>The property is fairly new and very clean.  The night front desk clerk, Leonta, was very friendly and greeted us with a smile each time.  She is an excellent example of good customer service.  The free breakfast is a great benefit and the food was good.Housekeeping did a great job cleaning our room each day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wendy B, General Manager at TownePlace Suites Dallas McKinney, responded to this reviewResponded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2017</t>
+  </si>
+  <si>
+    <t>The property is fairly new and very clean.  The night front desk clerk, Leonta, was very friendly and greeted us with a smile each time.  She is an excellent example of good customer service.  The free breakfast is a great benefit and the food was good.Housekeeping did a great job cleaning our room each day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r512398954-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>512398954</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel in a Good Location</t>
+  </si>
+  <si>
+    <t>We chose this hotel for two reasons. We almost always stay at Marriotts when we travel and it was a good location for us. The rooms are fairly spacious because this type of hotel has rooms similar to apartments. It has a kitchen including full size fridge and a nice size closet off the kitchen connecting to the bathroom. There is a small outside pool and a bbq area. The grounds were picked up and the trash containers were empty. The hotel is right across from an apartment complex that use to be a golf club. There is a nice nature walk around the 18 holes. We enjoyed walking around it in the morning. We also enjoyed the warm cookies the hotel offered in the evening. The complimentary breakfast was the usual fare that Marriott offers. I also enjoy the oatmeal with fixings and cheese and eggs.Close to the hotel you will find fuel, restaurants, and shopping. We ate at Mr. Jim's Pizza. It's very close to the hotel. It was good pizza with great crust! There is only one table, so you might want to pick it up or they do deliver.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>We chose this hotel for two reasons. We almost always stay at Marriotts when we travel and it was a good location for us. The rooms are fairly spacious because this type of hotel has rooms similar to apartments. It has a kitchen including full size fridge and a nice size closet off the kitchen connecting to the bathroom. There is a small outside pool and a bbq area. The grounds were picked up and the trash containers were empty. The hotel is right across from an apartment complex that use to be a golf club. There is a nice nature walk around the 18 holes. We enjoyed walking around it in the morning. We also enjoyed the warm cookies the hotel offered in the evening. The complimentary breakfast was the usual fare that Marriott offers. I also enjoy the oatmeal with fixings and cheese and eggs.Close to the hotel you will find fuel, restaurants, and shopping. We ate at Mr. Jim's Pizza. It's very close to the hotel. It was good pizza with great crust! There is only one table, so you might want to pick it up or they do deliver.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r489434238-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
@@ -334,9 +490,6 @@
     <t>Stayed there while in town for a wedding w/ hubby. Amazing hotel, rooms very clean and modern, breakfast good , outside well kept and in a great location- quiet. Now the bad- two of the front facing outside doors were propped open- one w/ a rock and other w/ a towel! After looked at the one by the pool, we realized the latch was broken and even though there was no outside handle- you could pry door open w/ fingers. This was at 11 pm so not secure at all when most people are sleeping! I told guy at front desk at breakfast- hope something is done!!!Perfect stay except for this!More</t>
   </si>
   <si>
-    <t>rover_733</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r487510186-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -361,9 +514,6 @@
     <t>Stayed here for my son's soccer tournament in McKinney. Fairly typical for this range of hotels - it is clean, good shower, and all basic amenities. Many restaurants witihin  a 15-20 mins drive in Mckinney or Allen. there is a small courtyard with a BBQ grill - it is right in the parking lot.. not a great place to hang out. If you need a good night sleep in Mckinney and dont want to spend too much - this is it.More</t>
   </si>
   <si>
-    <t>Jennifer S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r482695198-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -391,7 +541,46 @@
     <t>The TownPlace Suites in McKinney is a nice home away from home. I stayed at the hotel for 8 days while work was being done in my home in McKinney. While there, I slipped in the tub after just stepping into the tub and it was so slippery that I slipped, fell backwards out of the tub, hit my back onto the toilet and then fell onto the floor. The front desk clerk on duty was extremely helpful, calling the paramedics and providing a sheet to cover up my body. As I was in so much pain, I could not move. Subsequently, the General Manager, Wendy Boyd, asked me to send her an email with the account of the incident so that she can share with the Regional Manager. I sent the email on May 2, 2017, a subsequent email on May 3, 2017 asking her to acknowledge receipt of the email. As of today, May 8, 2017, I've not received acknowledgement of the incident email or been contacted by anyone from Marriott. I would not recommend anyone to stay at TownPlace Suites McKinney, because they do not address issues that occur on their property in an expeditious manner. I'm still in pain and being treated by my doctor.More</t>
   </si>
   <si>
-    <t>AJM1975</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r481066541-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>481066541</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Enjoyed Our Stay</t>
+  </si>
+  <si>
+    <t>Perfect location for our group gathering for a family wedding.  Close to restaurants and downtown McKinney.  Liked the many room/suite options.  Fun to have an outdoor pool and grilling area.  Would have liked higher quality on breakfast items, but you won't go hungry.  Staff was very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Perfect location for our group gathering for a family wedding.  Close to restaurants and downtown McKinney.  Liked the many room/suite options.  Fun to have an outdoor pool and grilling area.  Would have liked higher quality on breakfast items, but you won't go hungry.  Staff was very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r480595688-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>480595688</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Family Wedding</t>
+  </si>
+  <si>
+    <t>Picked this hotel because it was near the wedding we came for and close to attractions.Very friendly staff all around. Very helpful and polite. We had three rooms total and everyone was happy with the room. I believe we all had king suites. Very nice to have a big refrigerator, stove top burners, micro and dishwasher. Room was clean, closet was very nice and bed was very comfortable. Hotel was quiet, nice breakfast. Plenty of restaurants, and shopping near by.MoreShow less</t>
+  </si>
+  <si>
+    <t>Picked this hotel because it was near the wedding we came for and close to attractions.Very friendly staff all around. Very helpful and polite. We had three rooms total and everyone was happy with the room. I believe we all had king suites. Very nice to have a big refrigerator, stove top burners, micro and dishwasher. Room was clean, closet was very nice and bed was very comfortable. Hotel was quiet, nice breakfast. Plenty of restaurants, and shopping near by.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r478803758-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
@@ -421,9 +610,6 @@
     <t>This property is newish but is not being maintained properly. Staff is inexperienced and not able to resolve issues during stays. General manager does not return calls and seems unconcerned. My advice is stay somewhere else. As a loyal Marriott Rewards member I'm concerned that Marriott is not properly inspecting these franchised hotels.More</t>
   </si>
   <si>
-    <t>Lulu4u82</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r471765295-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -442,9 +628,6 @@
     <t>My family and I stayed at this property a week ago for one night. One night was all that we could take because it became very hazardous to 2 of my children's health. When we checked in, we were upgraded due to being a Marriott Rewards platinum member to a 2 bedroom suite. The "AGM" said that there was very few rooms available due to the fact that there was a housekeeper shortage because they all walked out the week prior. He explained to us that there were animals in the room next door and prior but said that it was cleaned. Upon entering the room, we were literally knocked out by the smell. It was so bad that it burned our noses. Upon farther inspection of the room, we noticed that it wasn't cleaned very well. The shower curtain in the bathroom had not been changed as it had dirt smeared all over it, hair on the walls, mold stuck to the vent over the toilet, black marks on the walls. There was food left on the floors, counters, stove top with the oven door falling off and dirty dishes in the dishwasher. When my husband showed the pictures to the "AGM" he said that he knew that the room was in bad shape. He also said that the carpets had been shampooed but weren't done right. We used a whole can of Lysol to help with the smell,...My family and I stayed at this property a week ago for one night. One night was all that we could take because it became very hazardous to 2 of my children's health. When we checked in, we were upgraded due to being a Marriott Rewards platinum member to a 2 bedroom suite. The "AGM" said that there was very few rooms available due to the fact that there was a housekeeper shortage because they all walked out the week prior. He explained to us that there were animals in the room next door and prior but said that it was cleaned. Upon entering the room, we were literally knocked out by the smell. It was so bad that it burned our noses. Upon farther inspection of the room, we noticed that it wasn't cleaned very well. The shower curtain in the bathroom had not been changed as it had dirt smeared all over it, hair on the walls, mold stuck to the vent over the toilet, black marks on the walls. There was food left on the floors, counters, stove top with the oven door falling off and dirty dishes in the dishwasher. When my husband showed the pictures to the "AGM" he said that he knew that the room was in bad shape. He also said that the carpets had been shampooed but weren't done right. We used a whole can of Lysol to help with the smell, but unfortunately it did nothing. Later that night when we were going to bed, the sheets had not been changed!! When I went to the front desk to get sets of clean sheets, the night auditor was lounging on chairs with her feet propped up playing on her cell phone. She did not seem to care that I had to change my sheets that were previously used by another guest. The next day, we were rudely interrupted by housekeeping entering the room before check out time with a DND on the door. I was offered a late check out when I checked in the day before for 4pm. At 3:00 the room was called by the front desk asking if we were extending our stay. I said not on our lives would I extend. Too bad it almost came down to our lives because I had to bring 2 of my children to the nearest urgent care for their allergies because we were put into a room that the staff knew was not properly cleaned after it was used by an animal. When I checked out at the desk, I explained all this to the girl working. I told her to go smell the room, which she did and was disgusted. I also showed her the issues with the room. I told her that I would like to hear from the GM by Monday afternoon, which has not happened. So my warning to future guests: Enter at your own risk and good luck.More</t>
   </si>
   <si>
-    <t>7132Dave</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r466152989-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -469,7 +652,43 @@
     <t>Very nice lady at the desk. Hated the elevator, didn't like the decor and layout. Prefer the Springhills to the townePlace I guess. Fully adequate but would tend toward a different property next time.More</t>
   </si>
   <si>
-    <t>Lauren M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r461815013-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>461815013</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Excellent Stay, Great Employee at Breakfast Area</t>
+  </si>
+  <si>
+    <t>This is a newer hotel in McKinney off 75.  The rooms are fully equipped with a small kitchen, large closet, nice work area and comfortable furniture. The room was not large but it was very comfortable.   We went to breakfast the first morning and were impressed with how full the entire breakfast area was with food and drinks and supplies.   Everything was full and all the tables were clean.  Even the trash can was being maintained.   A young lady named "Kalea" was handling this area today.  She was new to the hotel and had worked this area and the front desk.  A message to hotel management....you better keep this young lady.  She is great.  She said she was going to college for hotel hospitality. There is an outdoor pool(to cold in Jan to use), fitness center, snack market,  patio and grill area also.  All very nice.  I would definitely recommend this hotel to anyone passing thru the Dallas area on 75 or for a nice overnight stay if you live in Dallas. The hotel is well maintained and is easy to get to off the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>This is a newer hotel in McKinney off 75.  The rooms are fully equipped with a small kitchen, large closet, nice work area and comfortable furniture. The room was not large but it was very comfortable.   We went to breakfast the first morning and were impressed with how full the entire breakfast area was with food and drinks and supplies.   Everything was full and all the tables were clean.  Even the trash can was being maintained.   A young lady named "Kalea" was handling this area today.  She was new to the hotel and had worked this area and the front desk.  A message to hotel management....you better keep this young lady.  She is great.  She said she was going to college for hotel hospitality. There is an outdoor pool(to cold in Jan to use), fitness center, snack market,  patio and grill area also.  All very nice.  I would definitely recommend this hotel to anyone passing thru the Dallas area on 75 or for a nice overnight stay if you live in Dallas. The hotel is well maintained and is easy to get to off the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r461175220-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>461175220</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I stayed at this location back in November for business. Great staff. Room was clean and accomodating. I will be back! Breakfast was great and the grounds were clean. Had it been warmer I would have gone swimming!</t>
+  </si>
+  <si>
+    <t>November 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r434049009-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
@@ -499,9 +718,6 @@
     <t>My friend got a suite for her bridesmaids to share for her wedding. The suite had two good sized bedrooms, a pull out couch, one bathroom and a kitchenette. The room was very nice and the whole place was very clean. The staff was very friendly and accommodating. 5 people stayed the night and slept comfortably. The bride, 3 bridesmaids, and the mother of the bride all had their hair and make up done in the living area without feeling cramped. It was a great stay! More</t>
   </si>
   <si>
-    <t>erbii</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r431336189-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -526,9 +742,6 @@
     <t>We stayed at this place for a few nights in Oct. 2016.  Upon entering the room around 6:30 pm, the dishwasher was still running.  That was just our first clue on how the room would be maintained:  Coffee was not replenished the next morning; the coffee pot was not cleaned; toilet paper and an obviously empty tissue box were not replenished.  I went down to the front desk to complain to a supervisor.  The front clerk said no one was there.  She then proceeded to a back room where she came back with 2 rolls of TP and a box of tissue, which I took back to my room in front of several customers who were waiting in line behind me.  So she didn't have the common sense (decency) to tell me that someone would deliver the items to my room.  Needless to say, we won't be staying there ever again.More</t>
   </si>
   <si>
-    <t>Evelyn L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r422490594-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -556,7 +769,66 @@
     <t>Booked into Towne Place Suites Marriott for a wedding.  Arrived at approximately 3:15 p.m. to check in.  Had to wait 45 minutes for the "room to be ready".  Had to rush to get ready for the wedding, and arrived late.  No apology from the staff, no offer to discount the stay.  Terrible experience.  Will never stay there again.More</t>
   </si>
   <si>
-    <t>Jeanette G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r408088446-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>408088446</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>Bright &amp; Shiney - NEW, NEW, NEW!</t>
+  </si>
+  <si>
+    <t>TownePlace Suites Dallas (McKinney) - 8-19-16
+Opened Feb 2016
+Booked 2 rooms for 1 night with Marriott Reward Points - each room was a King size bedroom suite with a well-equipped kitchenette, along with a plethora of electrical plugs for recharging phones and tablets.
+Our 3rd floor rooms were #317 &amp; 318, and did not experience any noise from the 4th floor guests.  Overall, the rooms were very clean, well-equipped, and efficiently packaged.  There was LOTS of useful storage, including the Container Store's "Elfa" shelving, baskets, wall hooks, etc. in the closet.  (A very impressive feature for any hotel to offer!)
+The Registration Office is very nondescript on the outside - our first impression, when driving up, was that it was the rear entrance!  However, a MAJOR PROBLEM or DESIGN FAULT is this: there is NOT an all-weather, covered portico at the entrance to the Registration Office!   Who doesn't provide one of these?  (Fortunately, we arrived an hour before the rain.). Plus, whether you're navigating a wheel chair or luggage cart/trolley, the ADA ramps are on both sides of the front and rear doors, but they were awkwardly placed and spaced. The Staff, however, were top-level friendly and efficient: a member of the engineering staff (or so he appeared to be) went to upper floors to find a luggage trolley for me. The hotel's Location is very close to Hwy 75 and Eldorado, major north/south and east/west routes, but not...TownePlace Suites Dallas (McKinney) - 8-19-16Opened Feb 2016Booked 2 rooms for 1 night with Marriott Reward Points - each room was a King size bedroom suite with a well-equipped kitchenette, along with a plethora of electrical plugs for recharging phones and tablets.Our 3rd floor rooms were #317 &amp; 318, and did not experience any noise from the 4th floor guests.  Overall, the rooms were very clean, well-equipped, and efficiently packaged.  There was LOTS of useful storage, including the Container Store's "Elfa" shelving, baskets, wall hooks, etc. in the closet.  (A very impressive feature for any hotel to offer!)The Registration Office is very nondescript on the outside - our first impression, when driving up, was that it was the rear entrance!  However, a MAJOR PROBLEM or DESIGN FAULT is this: there is NOT an all-weather, covered portico at the entrance to the Registration Office!   Who doesn't provide one of these?  (Fortunately, we arrived an hour before the rain.). Plus, whether you're navigating a wheel chair or luggage cart/trolley, the ADA ramps are on both sides of the front and rear doors, but they were awkwardly placed and spaced. The Staff, however, were top-level friendly and efficient: a member of the engineering staff (or so he appeared to be) went to upper floors to find a luggage trolley for me. The hotel's Location is very close to Hwy 75 and Eldorado, major north/south and east/west routes, but not a hint of traffic noise in the rooms.  A nice surprise greeted us as we returned from dining out - the management had fresh baked chocolate chip cookies for the guests!  The breakfast area containing the food items seemed a little small, while the seating area was generous.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2016</t>
+  </si>
+  <si>
+    <t>TownePlace Suites Dallas (McKinney) - 8-19-16
+Opened Feb 2016
+Booked 2 rooms for 1 night with Marriott Reward Points - each room was a King size bedroom suite with a well-equipped kitchenette, along with a plethora of electrical plugs for recharging phones and tablets.
+Our 3rd floor rooms were #317 &amp; 318, and did not experience any noise from the 4th floor guests.  Overall, the rooms were very clean, well-equipped, and efficiently packaged.  There was LOTS of useful storage, including the Container Store's "Elfa" shelving, baskets, wall hooks, etc. in the closet.  (A very impressive feature for any hotel to offer!)
+The Registration Office is very nondescript on the outside - our first impression, when driving up, was that it was the rear entrance!  However, a MAJOR PROBLEM or DESIGN FAULT is this: there is NOT an all-weather, covered portico at the entrance to the Registration Office!   Who doesn't provide one of these?  (Fortunately, we arrived an hour before the rain.). Plus, whether you're navigating a wheel chair or luggage cart/trolley, the ADA ramps are on both sides of the front and rear doors, but they were awkwardly placed and spaced. The Staff, however, were top-level friendly and efficient: a member of the engineering staff (or so he appeared to be) went to upper floors to find a luggage trolley for me. The hotel's Location is very close to Hwy 75 and Eldorado, major north/south and east/west routes, but not...TownePlace Suites Dallas (McKinney) - 8-19-16Opened Feb 2016Booked 2 rooms for 1 night with Marriott Reward Points - each room was a King size bedroom suite with a well-equipped kitchenette, along with a plethora of electrical plugs for recharging phones and tablets.Our 3rd floor rooms were #317 &amp; 318, and did not experience any noise from the 4th floor guests.  Overall, the rooms were very clean, well-equipped, and efficiently packaged.  There was LOTS of useful storage, including the Container Store's "Elfa" shelving, baskets, wall hooks, etc. in the closet.  (A very impressive feature for any hotel to offer!)The Registration Office is very nondescript on the outside - our first impression, when driving up, was that it was the rear entrance!  However, a MAJOR PROBLEM or DESIGN FAULT is this: there is NOT an all-weather, covered portico at the entrance to the Registration Office!   Who doesn't provide one of these?  (Fortunately, we arrived an hour before the rain.). Plus, whether you're navigating a wheel chair or luggage cart/trolley, the ADA ramps are on both sides of the front and rear doors, but they were awkwardly placed and spaced. The Staff, however, were top-level friendly and efficient: a member of the engineering staff (or so he appeared to be) went to upper floors to find a luggage trolley for me. The hotel's Location is very close to Hwy 75 and Eldorado, major north/south and east/west routes, but not a hint of traffic noise in the rooms.  A nice surprise greeted us as we returned from dining out - the management had fresh baked chocolate chip cookies for the guests!  The breakfast area containing the food items seemed a little small, while the seating area was generous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r384611389-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>384611389</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Worst managed hotel I have ever stayed at</t>
+  </si>
+  <si>
+    <t>This is quite possibly the worst managed hotel I've ever stayed at. (1) I called to confirm multiple times that there would be a full-sized crib available for my baby on check-in. The final confirmation was the day before the trip. I asked to pay extra to ensure one was available. Direct quote: "Don't worry. We have lots." Upon arrival at 5:20pm, the same person I talked to over the phone (Ms. "We have lots") told me there were, in fact, NO cribs available, and none expected to be available for our entire stay. She was very sorry. And, by "lots," she meant "zero." They had exactly zero full sized cribs in the entire facility. They had 4 pack-n-plays, 2 of which were broken beyond repair (and should have been thrown away), and 2 were being used by other guests. Our solution was to put the hide-a-couch mattress on the floor of the main living room and cross our fingers that she did not roll off. She came close a few times (leg hanging off the edge), but fortunately stayed on.
+Our request for adjoining rooms similarly was not only not honored, but our room was on the 1st floor (we had requested a high-level floor) and my parents' room was on the 4th floor. 
+Upon checking in, we were told not to use the dishwasher in the room. "It's broken. Sorry."
+Our room was not cleaned the entire length...This is quite possibly the worst managed hotel I've ever stayed at. (1) I called to confirm multiple times that there would be a full-sized crib available for my baby on check-in. The final confirmation was the day before the trip. I asked to pay extra to ensure one was available. Direct quote: "Don't worry. We have lots." Upon arrival at 5:20pm, the same person I talked to over the phone (Ms. "We have lots") told me there were, in fact, NO cribs available, and none expected to be available for our entire stay. She was very sorry. And, by "lots," she meant "zero." They had exactly zero full sized cribs in the entire facility. They had 4 pack-n-plays, 2 of which were broken beyond repair (and should have been thrown away), and 2 were being used by other guests. Our solution was to put the hide-a-couch mattress on the floor of the main living room and cross our fingers that she did not roll off. She came close a few times (leg hanging off the edge), but fortunately stayed on.Our request for adjoining rooms similarly was not only not honored, but our room was on the 1st floor (we had requested a high-level floor) and my parents' room was on the 4th floor. Upon checking in, we were told not to use the dishwasher in the room. "It's broken. Sorry."Our room was not cleaned the entire length of our stay. They did not even empty our garbage, which had dirty diapers in it. We had to empty it ourselves.Upon checking out, we discovered AT CHECKOUT that our bill was incorrect. We were overcharged by nearly $40. The person checking us out did not know how to fix it. He was also sorry. He advised us to call the "manager" and handed us the card of someone who he probably thought was a manager. She is not, as we discovered later on.We called said "manager" upon returning home. A week later and she still has not returned our call. Two days after that, we called the main line and were assured that our bill was being corrected immediately by someone who was, in fact, a manager. Several days have now passed with no correction. I called again, spoke with someone else, who gave me the name of yet another "manager." Another voicemail left. No reply.DO NOT STAY HERE EVER. I travel constantly and have for the better part of 15 years. I cannot recall ever having stayed at a more poorly run facility, ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>This is quite possibly the worst managed hotel I've ever stayed at. (1) I called to confirm multiple times that there would be a full-sized crib available for my baby on check-in. The final confirmation was the day before the trip. I asked to pay extra to ensure one was available. Direct quote: "Don't worry. We have lots." Upon arrival at 5:20pm, the same person I talked to over the phone (Ms. "We have lots") told me there were, in fact, NO cribs available, and none expected to be available for our entire stay. She was very sorry. And, by "lots," she meant "zero." They had exactly zero full sized cribs in the entire facility. They had 4 pack-n-plays, 2 of which were broken beyond repair (and should have been thrown away), and 2 were being used by other guests. Our solution was to put the hide-a-couch mattress on the floor of the main living room and cross our fingers that she did not roll off. She came close a few times (leg hanging off the edge), but fortunately stayed on.
+Our request for adjoining rooms similarly was not only not honored, but our room was on the 1st floor (we had requested a high-level floor) and my parents' room was on the 4th floor. 
+Upon checking in, we were told not to use the dishwasher in the room. "It's broken. Sorry."
+Our room was not cleaned the entire length...This is quite possibly the worst managed hotel I've ever stayed at. (1) I called to confirm multiple times that there would be a full-sized crib available for my baby on check-in. The final confirmation was the day before the trip. I asked to pay extra to ensure one was available. Direct quote: "Don't worry. We have lots." Upon arrival at 5:20pm, the same person I talked to over the phone (Ms. "We have lots") told me there were, in fact, NO cribs available, and none expected to be available for our entire stay. She was very sorry. And, by "lots," she meant "zero." They had exactly zero full sized cribs in the entire facility. They had 4 pack-n-plays, 2 of which were broken beyond repair (and should have been thrown away), and 2 were being used by other guests. Our solution was to put the hide-a-couch mattress on the floor of the main living room and cross our fingers that she did not roll off. She came close a few times (leg hanging off the edge), but fortunately stayed on.Our request for adjoining rooms similarly was not only not honored, but our room was on the 1st floor (we had requested a high-level floor) and my parents' room was on the 4th floor. Upon checking in, we were told not to use the dishwasher in the room. "It's broken. Sorry."Our room was not cleaned the entire length of our stay. They did not even empty our garbage, which had dirty diapers in it. We had to empty it ourselves.Upon checking out, we discovered AT CHECKOUT that our bill was incorrect. We were overcharged by nearly $40. The person checking us out did not know how to fix it. He was also sorry. He advised us to call the "manager" and handed us the card of someone who he probably thought was a manager. She is not, as we discovered later on.We called said "manager" upon returning home. A week later and she still has not returned our call. Two days after that, we called the main line and were assured that our bill was being corrected immediately by someone who was, in fact, a manager. Several days have now passed with no correction. I called again, spoke with someone else, who gave me the name of yet another "manager." Another voicemail left. No reply.DO NOT STAY HERE EVER. I travel constantly and have for the better part of 15 years. I cannot recall ever having stayed at a more poorly run facility, ever.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r378736189-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
@@ -579,15 +851,6 @@
 DECOR/OVERALL: I also really loved the way the room itself was setup. It has a comfortable bed, nice thick pillows,...I have been living on the road in this area for about 6 weeks, bouncing to various accommodations and, when I got here, I realized I should have come to this place sooner and stayed much longer!LOCATION: Ideal. Close to two major freeways, which means easy access to anywhere in the metroplex. Quiet neighborhood. Close to shopping of all types. You don't even have to cross a main road to get groceries, eat out or hit up the dollar store. STAFF: All of them were kind, friendly, and awesome for my entire stay. HOTEL AMENITIES: Nice pool outside; great morning breakfast that includes all of the basic continental stuff plus warm breakfast, like eggs sausage, cheese and everything you need for a do-it-yourself egg muffin. No pancakes or waffles, but I didn't care because I'd prefer eggs and sausage any day. ROOM AMENITIES: Everything you need and then some. You get a full size refrigerator and freezer, dishwasher, and stove top, plus a full sized coffee maker, silverware, dishes, pots and pans, spatulas. This is what I wish every hotel room had and is a MUST for me when i travel for extended periods.  They also came in and refreshed my room every day, making the bed, refreshing towels, washing dishes, etc. Many longer term hotels don't do that. DECOR/OVERALL: I also really loved the way the room itself was setup. It has a comfortable bed, nice thick pillows, a loveseat-sized couch with a pull-up dinner tray as well as tray you can set on your bed to eat.  It had a full-sized desk and computer area as well, with PLENTY of storage. There's even an extra part of the desk that you can slide out and move all around like a regular table - it easily doubles as a dining room table. Overall, it's a newer facility, so everything is modern, clean, and tastefully decorated. The free WiFi also worked just awesome!Highly recommended and would definitely stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
-    <t>Management response:Responded September 2, 2016</t>
-  </si>
-  <si>
-    <t>Responded September 2, 2016</t>
-  </si>
-  <si>
     <t>I have been living on the road in this area for about 6 weeks, bouncing to various accommodations and, when I got here, I realized I should have come to this place sooner and stayed much longer!
 LOCATION: Ideal. Close to two major freeways, which means easy access to anywhere in the metroplex. Quiet neighborhood. Close to shopping of all types. You don't even have to cross a main road to get groceries, eat out or hit up the dollar store. 
 STAFF: All of them were kind, friendly, and awesome for my entire stay. 
@@ -596,9 +859,6 @@
 DECOR/OVERALL: I also really loved the way the room itself was setup. It has a comfortable bed, nice thick pillows,...I have been living on the road in this area for about 6 weeks, bouncing to various accommodations and, when I got here, I realized I should have come to this place sooner and stayed much longer!LOCATION: Ideal. Close to two major freeways, which means easy access to anywhere in the metroplex. Quiet neighborhood. Close to shopping of all types. You don't even have to cross a main road to get groceries, eat out or hit up the dollar store. STAFF: All of them were kind, friendly, and awesome for my entire stay. HOTEL AMENITIES: Nice pool outside; great morning breakfast that includes all of the basic continental stuff plus warm breakfast, like eggs sausage, cheese and everything you need for a do-it-yourself egg muffin. No pancakes or waffles, but I didn't care because I'd prefer eggs and sausage any day. ROOM AMENITIES: Everything you need and then some. You get a full size refrigerator and freezer, dishwasher, and stove top, plus a full sized coffee maker, silverware, dishes, pots and pans, spatulas. This is what I wish every hotel room had and is a MUST for me when i travel for extended periods.  They also came in and refreshed my room every day, making the bed, refreshing towels, washing dishes, etc. Many longer term hotels don't do that. DECOR/OVERALL: I also really loved the way the room itself was setup. It has a comfortable bed, nice thick pillows, a loveseat-sized couch with a pull-up dinner tray as well as tray you can set on your bed to eat.  It had a full-sized desk and computer area as well, with PLENTY of storage. There's even an extra part of the desk that you can slide out and move all around like a regular table - it easily doubles as a dining room table. Overall, it's a newer facility, so everything is modern, clean, and tastefully decorated. The free WiFi also worked just awesome!Highly recommended and would definitely stay here again.More</t>
   </si>
   <si>
-    <t>GISGoddess</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r378103017-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -617,13 +877,7 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Che kid in and was upgraded to a two bedroom suite. We were her for a week and found the location to be ideal to access highway 75 and downtown McKinney. Room was spacious and clean. Thank you for the great stay.More</t>
-  </si>
-  <si>
-    <t>MarissaMN</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7786963-r376407484-TownePlace_Suites_Dallas_McKinney-McKinney_Texas.html</t>
@@ -1149,91 +1403,83 @@
       <c r="A2" t="n">
         <v>63134</v>
       </c>
-      <c r="B2" t="n">
-        <v>180223</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>63134</v>
       </c>
-      <c r="B3" t="n">
-        <v>180224</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
       </c>
       <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
       </c>
       <c r="I3" t="s">
         <v>57</v>
@@ -1251,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
         <v>61</v>
@@ -1265,36 +1511,36 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>63134</v>
       </c>
-      <c r="B4" t="n">
-        <v>180225</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>63</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>64</v>
@@ -1309,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1329,33 +1575,29 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>63134</v>
       </c>
-      <c r="B5" t="n">
-        <v>180226</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
       </c>
       <c r="I5" t="s">
         <v>72</v>
@@ -1376,78 +1618,74 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>63134</v>
       </c>
-      <c r="B6" t="n">
-        <v>180227</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
       <c r="O6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
@@ -1456,132 +1694,110 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>77</v>
-      </c>
-      <c r="X6" t="s">
-        <v>78</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>63134</v>
       </c>
-      <c r="B7" t="n">
-        <v>180228</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
         <v>88</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
         <v>89</v>
       </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>93</v>
-      </c>
-      <c r="X7" t="s">
-        <v>94</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>63134</v>
       </c>
-      <c r="B8" t="n">
-        <v>180229</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1595,196 +1811,168 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>63134</v>
       </c>
-      <c r="B9" t="n">
-        <v>92233</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>110</v>
-      </c>
-      <c r="X9" t="s">
-        <v>111</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>63134</v>
       </c>
-      <c r="B10" t="n">
-        <v>450</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>63134</v>
       </c>
-      <c r="B11" t="n">
-        <v>47418</v>
-      </c>
-      <c r="C11" t="s">
-        <v>123</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1796,456 +1984,448 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>63134</v>
       </c>
-      <c r="B12" t="n">
-        <v>180230</v>
-      </c>
-      <c r="C12" t="s">
-        <v>133</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>89</v>
+      </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" t="s">
+        <v>110</v>
+      </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>63134</v>
       </c>
-      <c r="B13" t="n">
-        <v>180231</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>63134</v>
       </c>
-      <c r="B14" t="n">
-        <v>4404</v>
-      </c>
-      <c r="C14" t="s">
-        <v>149</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>63134</v>
       </c>
-      <c r="B15" t="n">
-        <v>180232</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="X15" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>63134</v>
       </c>
-      <c r="B16" t="n">
-        <v>71081</v>
-      </c>
-      <c r="C16" t="s">
-        <v>168</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>175</v>
-      </c>
-      <c r="X16" t="s">
-        <v>176</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>63134</v>
       </c>
-      <c r="B17" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C17" t="s">
-        <v>178</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="X17" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="Y17" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>63134</v>
       </c>
-      <c r="B18" t="n">
-        <v>126739</v>
-      </c>
-      <c r="C18" t="s">
-        <v>188</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
         <v>5</v>
@@ -2253,90 +2433,950 @@
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="X18" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="Y18" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>63134</v>
       </c>
-      <c r="B19" t="n">
-        <v>180233</v>
-      </c>
-      <c r="C19" t="s">
-        <v>197</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="J19" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>203</v>
-      </c>
-      <c r="O19" t="s">
-        <v>195</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
         <v>185</v>
       </c>
-      <c r="X19" t="s">
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>178</v>
+      </c>
+      <c r="X20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y20" t="s">
         <v>186</v>
       </c>
-      <c r="Y19" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>193</v>
+      </c>
+      <c r="X21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" t="s">
         <v>204</v>
+      </c>
+      <c r="K23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>222</v>
+      </c>
+      <c r="O25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>224</v>
+      </c>
+      <c r="J26" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" t="s">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s">
+        <v>227</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>228</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>229</v>
+      </c>
+      <c r="X26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>233</v>
+      </c>
+      <c r="J27" t="s">
+        <v>234</v>
+      </c>
+      <c r="K27" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s">
+        <v>236</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>228</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>237</v>
+      </c>
+      <c r="X27" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>245</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>246</v>
+      </c>
+      <c r="X28" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>255</v>
+      </c>
+      <c r="X29" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>263</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>255</v>
+      </c>
+      <c r="X30" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" t="s">
+        <v>267</v>
+      </c>
+      <c r="K31" t="s">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s">
+        <v>269</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>263</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>255</v>
+      </c>
+      <c r="X31" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>276</v>
+      </c>
+      <c r="O32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>255</v>
+      </c>
+      <c r="X32" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63134</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>279</v>
+      </c>
+      <c r="J33" t="s">
+        <v>280</v>
+      </c>
+      <c r="K33" t="s">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s">
+        <v>282</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>283</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>255</v>
+      </c>
+      <c r="X33" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
